--- a/pcb/eduRov_electronics_bom-lipo.xlsx
+++ b/pcb/eduRov_electronics_bom-lipo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simti\Documents\Git\edu-rover2\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C6DAD5-8B99-415F-B1F3-B21BE0388DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB811E5-BA7D-4004-924D-A22A3D8B50DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23115" yWindow="2535" windowWidth="16200" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="205">
   <si>
     <t>Component</t>
   </si>
@@ -307,9 +307,6 @@
     <t>U1 U2</t>
   </si>
   <si>
-    <t>Arduino header</t>
-  </si>
-  <si>
     <t>SAM1213-15-ND</t>
   </si>
   <si>
@@ -578,19 +575,85 @@
   </si>
   <si>
     <t>Manufacturer Part number</t>
+  </si>
+  <si>
+    <t>Wiring &amp; power</t>
+  </si>
+  <si>
+    <t>ROV power source</t>
+  </si>
+  <si>
+    <t>Elefun</t>
+  </si>
+  <si>
+    <t>Gens Ace</t>
+  </si>
+  <si>
+    <t>Heat shrink tubing</t>
+  </si>
+  <si>
+    <t>To protect cables and solder points</t>
+  </si>
+  <si>
+    <t>Fuse </t>
+  </si>
+  <si>
+    <t>FUSEHS-2</t>
+  </si>
+  <si>
+    <t>Ethernet cable  CAT6 UTP 30m</t>
+  </si>
+  <si>
+    <t>Umbilical for the ROV, datatransfer to the surface</t>
+  </si>
+  <si>
+    <t>2229-NPC-6600-ND</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>Quest Technology International Inc.</t>
+  </si>
+  <si>
+    <t>NPC-6600</t>
+  </si>
+  <si>
+    <t>Battery cabling</t>
+  </si>
+  <si>
+    <t>Wiring from battery pack to PCB</t>
+  </si>
+  <si>
+    <t>FUSEW-44</t>
+  </si>
+  <si>
+    <t>5000mAh LiPO battery</t>
+  </si>
+  <si>
+    <t> B-50C-5000-3S1P-TRX-XT60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -613,13 +676,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +1058,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -995,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1004,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -1012,7 +1090,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1047,7 +1125,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -1082,7 +1160,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
@@ -1117,7 +1195,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>28</v>
@@ -1152,7 +1230,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -1187,7 +1265,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>42</v>
@@ -1222,7 +1300,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>47</v>
@@ -1257,7 +1335,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -1292,31 +1370,31 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>12</v>
@@ -1327,7 +1405,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>63</v>
@@ -1362,7 +1440,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>67</v>
@@ -1380,13 +1458,13 @@
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>12</v>
@@ -1397,7 +1475,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>68</v>
@@ -1406,7 +1484,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>66</v>
@@ -1415,13 +1493,13 @@
         <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>12</v>
@@ -1432,7 +1510,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>73</v>
@@ -1441,22 +1519,22 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>12</v>
@@ -1467,7 +1545,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>75</v>
@@ -1502,7 +1580,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>86</v>
@@ -1537,7 +1615,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>92</v>
@@ -1572,10 +1650,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>87</v>
@@ -1607,10 +1685,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>93</v>
@@ -1619,19 +1697,19 @@
         <v>94</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>12</v>
@@ -1642,31 +1720,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>12</v>
@@ -1677,31 +1755,31 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>12</v>
@@ -1712,31 +1790,31 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>12</v>
@@ -1747,31 +1825,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>12</v>
@@ -1782,31 +1860,31 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>12</v>
@@ -1817,31 +1895,31 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>12</v>
@@ -1852,31 +1930,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>12</v>
@@ -1887,31 +1965,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>12</v>
@@ -1922,31 +2000,31 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>12</v>
@@ -1957,31 +2035,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>12</v>
@@ -1992,36 +2070,36 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F30" s="1">
         <v>24</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -2030,53 +2108,164 @@
         <v>74</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="F31" s="1">
         <v>8</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>37951</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>41509</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>40347</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
